--- a/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
+++ b/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8657BA98-E468-444D-9C12-0C128E801174}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD0248-7F36-4E55-B1ED-0FE9659865B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,14 +117,6 @@
   </si>
   <si>
     <t>Bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device parameters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -232,6 +220,18 @@
   </si>
   <si>
     <t>AC or DC</t>
+  </si>
+  <si>
+    <t>Apparatus type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apparatus parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -660,40 +660,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -3291,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3315,18 +3315,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -4149,12 +4149,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -4164,30 +4164,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -6127,10 +6127,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -6173,7 +6173,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -6187,7 +6187,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>60</v>
@@ -6195,7 +6195,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6231,21 +6231,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
+++ b/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD0248-7F36-4E55-B1ED-0FE9659865B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E63845-A37D-4E22-8303-97EB9B8F6E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3291,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6159,8 +6159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6181,7 +6181,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>B3*1000/2</f>
+        <f>B3*500</f>
         <v>30000</v>
       </c>
     </row>

--- a/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
+++ b/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E63845-A37D-4E22-8303-97EB9B8F6E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679DA7CE-4278-4129-AA75-5283FE2FFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -6159,7 +6159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6220,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6288,7 +6288,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -6304,7 +6304,7 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
+++ b/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679DA7CE-4278-4129-AA75-5283FE2FFE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5657BA1-28EC-4326-8E65-C4305C9A2E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3291,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3340,8 +3340,8 @@
         <v>300</v>
       </c>
       <c r="D3" s="14">
-        <f>0.25*C3</f>
-        <v>75</v>
+        <f>0.25*C3/10</f>
+        <v>7.5</v>
       </c>
       <c r="E3" s="14">
         <v>4.1000000000000003E-3</v>
@@ -3362,8 +3362,8 @@
         <v>30.2</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" ref="D4:D18" si="0">0.25*C4</f>
-        <v>7.55</v>
+        <f t="shared" ref="D4:D18" si="0">0.25*C4/10</f>
+        <v>0.755</v>
       </c>
       <c r="E4" s="14">
         <v>3.5000000000000003E-2</v>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>8.9499999999999993</v>
+        <v>0.89499999999999991</v>
       </c>
       <c r="E5" s="14">
         <v>3.04E-2</v>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="0"/>
-        <v>7.15</v>
+        <v>0.71500000000000008</v>
       </c>
       <c r="E6" s="14">
         <v>2.9499999999999998E-2</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="E7" s="14">
         <v>2.7E-2</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="E8" s="14">
         <v>2.24E-2</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>6.6</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="E9" s="14">
         <v>3.2199999999999999E-2</v>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D10" s="14">
         <f t="shared" si="0"/>
-        <v>6.0750000000000002</v>
+        <v>0.60750000000000004</v>
       </c>
       <c r="E10" s="14">
         <v>2.8000000000000001E-2</v>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>8.625</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="E11" s="14">
         <v>2.98E-2</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>7.75</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="E12" s="14">
         <v>1.9900000000000001E-2</v>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>7.05</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E13" s="14">
         <v>1.03E-2</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="D14" s="14">
         <f t="shared" si="0"/>
-        <v>23.074999999999999</v>
+        <v>2.3075000000000001</v>
       </c>
       <c r="E14" s="14">
         <v>2.1999999999999999E-2</v>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>6.2</v>
       </c>
       <c r="E15" s="14">
         <v>3.0000000000000001E-3</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="E16" s="14">
         <v>1.6999999999999999E-3</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D17" s="14">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="E17" s="14">
         <v>1.6999999999999999E-3</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D18" s="14">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="E18" s="14">
         <v>1.2500000000000001E-2</v>
@@ -6220,7 +6220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
+++ b/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5657BA1-28EC-4326-8E65-C4305C9A2E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BFD7A-B268-40F4-9666-7E40F93F9CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
+++ b/Examples/AcPowerSystem/NET_NYPS_68Bus/NETS_NYPS_68Bus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\NET_NYPS_68Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BFD7A-B268-40F4-9666-7E40F93F9CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFA4AA0-358F-482C-9D9B-7837BB22E5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3340,8 +3340,8 @@
         <v>300</v>
       </c>
       <c r="D3" s="14">
-        <f>0.25*C3/10</f>
-        <v>7.5</v>
+        <f>0.25*C3</f>
+        <v>75</v>
       </c>
       <c r="E3" s="14">
         <v>4.1000000000000003E-3</v>
@@ -3362,8 +3362,8 @@
         <v>30.2</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" ref="D4:D18" si="0">0.25*C4/10</f>
-        <v>0.755</v>
+        <f>0.25*C4</f>
+        <v>7.55</v>
       </c>
       <c r="E4" s="14">
         <v>3.5000000000000003E-2</v>
@@ -3385,8 +3385,8 @@
         <v>35.799999999999997</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>0.89499999999999991</v>
+        <f>0.25*C5</f>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E5" s="14">
         <v>3.04E-2</v>
@@ -3407,8 +3407,8 @@
         <v>28.6</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" si="0"/>
-        <v>0.71500000000000008</v>
+        <f t="shared" ref="D6:D18" si="0">0.25*C6</f>
+        <v>7.15</v>
       </c>
       <c r="E6" s="14">
         <v>2.9499999999999998E-2</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="E7" s="14">
         <v>2.7E-2</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>0.86999999999999988</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E8" s="14">
         <v>2.24E-2</v>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>0.65999999999999992</v>
+        <v>6.6</v>
       </c>
       <c r="E9" s="14">
         <v>3.2199999999999999E-2</v>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D10" s="14">
         <f t="shared" si="0"/>
-        <v>0.60750000000000004</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="E10" s="14">
         <v>2.8000000000000001E-2</v>
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>0.86250000000000004</v>
+        <v>8.625</v>
       </c>
       <c r="E11" s="14">
         <v>2.98E-2</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>0.77500000000000002</v>
+        <v>7.75</v>
       </c>
       <c r="E12" s="14">
         <v>1.9900000000000001E-2</v>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>0.70499999999999996</v>
+        <v>7.05</v>
       </c>
       <c r="E13" s="14">
         <v>1.03E-2</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="D14" s="14">
         <f t="shared" si="0"/>
-        <v>2.3075000000000001</v>
+        <v>23.074999999999999</v>
       </c>
       <c r="E14" s="14">
         <v>2.1999999999999999E-2</v>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>62</v>
       </c>
       <c r="E15" s="14">
         <v>3.0000000000000001E-3</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="E16" s="14">
         <v>1.6999999999999999E-3</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D17" s="14">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>75</v>
       </c>
       <c r="E17" s="14">
         <v>1.6999999999999999E-3</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="D18" s="14">
         <f t="shared" si="0"/>
-        <v>1.05</v>
+        <v>10.5</v>
       </c>
       <c r="E18" s="14">
         <v>1.2500000000000001E-2</v>
